--- a/Jogos_do_Dia/2023-05-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +617,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -629,110 +629,110 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.23</v>
-      </c>
       <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.66</v>
-      </c>
       <c r="T2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.2</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.31</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>3.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="X2" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.93</v>
+        <v>3.34</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -744,110 +744,110 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.62</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="N3" t="n">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="O3" t="n">
-        <v>2.75</v>
+        <v>2.09</v>
       </c>
       <c r="P3" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.04</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
         <v>1.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.68</v>
+        <v>2.41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.3</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -859,104 +859,104 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>3.83</v>
+        <v>2.45</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.9</v>
+        <v>2.23</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
-        <v>1.69</v>
+        <v>0.71</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.27</v>
+        <v>2.93</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.75</v>
+        <v>7.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.7</v>
+        <v>3.03</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -978,100 +978,100 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>4.5</v>
+        <v>3.83</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="O5" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="P5" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="U5" t="n">
         <v>1.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1.69</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.73</v>
+        <v>3.27</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -1093,91 +1093,91 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
         <v>3.1</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AE6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AG6" t="n">
         <v>1.72</v>
@@ -1186,7 +1186,7 @@
         <v>2.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="7">
@@ -1208,100 +1208,100 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8">
@@ -1323,100 +1323,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1438,100 +1438,100 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AB9" t="n">
         <v>2.25</v>
       </c>
-      <c r="T9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.4</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="10">
@@ -1553,100 +1553,100 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>0.88</v>
+        <v>2.19</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.56</v>
+        <v>2.21</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.13</v>
+        <v>3.85</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
@@ -1668,106 +1668,106 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ümraniyespor</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.19</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>0.88</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,89 +1779,89 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J12" t="n">
         <v>1.02</v>
       </c>
       <c r="K12" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="M12" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O12" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="P12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>3</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="X12" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.41</v>
+        <v>2.66</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AE12" t="n">
         <v>1.2</v>
@@ -1873,10 +1873,10 @@
         <v>1.72</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="13">
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1928,10 +1928,10 @@
         <v>4.35</v>
       </c>
       <c r="N13" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="O13" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -1979,25 +1979,25 @@
         <v>2.44</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2013,97 +2013,97 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sportivo Luqueño</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.87</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.37</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="N14" t="n">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W14" t="n">
-        <v>0.89</v>
+        <v>2.67</v>
       </c>
       <c r="X14" t="n">
-        <v>0.78</v>
+        <v>1.44</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.55</v>
+        <v>2.99</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.46</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2227,7 +2227,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2243,100 +2243,330 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Sportivo Luqueño</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.89</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2.18</v>
       </c>
       <c r="J16" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Argentina Prim B Nacional</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21:05:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nueva Chicago</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.2</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="R17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF17" t="n">
         <v>1.74</v>
       </c>
-      <c r="T16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="AG17" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22:05:00</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.27</v>
       </c>
-      <c r="V16" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="U18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH18" t="n">
         <v>2.67</v>
       </c>
-      <c r="X16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
+      <c r="AI18" t="n">
+        <v>3.64</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-05-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -633,91 +633,91 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>5.17</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="O2" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="V2" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>2.19</v>
+        <v>1.19</v>
       </c>
       <c r="X2" t="n">
         <v>0.88</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.34</v>
+        <v>3.54</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.16</v>
+        <v>2.25</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.75</v>
+        <v>1.83</v>
       </c>
       <c r="AE2" t="n">
         <v>1.24</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AG2" t="n">
         <v>1.85</v>
@@ -726,13 +726,13 @@
         <v>2.3</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -744,110 +744,110 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="M3" t="n">
-        <v>3.7</v>
+        <v>5.17</v>
       </c>
       <c r="N3" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="O3" t="n">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.11</v>
       </c>
       <c r="U3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE3" t="n">
         <v>1.24</v>
       </c>
-      <c r="V3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AF3" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.79</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -859,104 +859,104 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Ümraniyespor</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.08</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.93</v>
+        <v>3.13</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -978,100 +978,100 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.69</v>
+        <v>0.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1093,91 +1093,91 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="O6" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V6" t="n">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.44</v>
+        <v>2.66</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.1</v>
+        <v>1.64</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AG6" t="n">
         <v>1.72</v>
@@ -1186,7 +1186,7 @@
         <v>2.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="7">
@@ -1208,100 +1208,100 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>1.44</v>
       </c>
       <c r="J7" t="n">
         <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="M7" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="O7" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="P7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.22</v>
       </c>
-      <c r="Q7" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.38</v>
       </c>
-      <c r="S7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X7" t="n">
-        <v>1.25</v>
+        <v>2.19</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.35</v>
+        <v>2.21</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.85</v>
+        <v>3.85</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.68</v>
+        <v>3.25</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.27</v>
+        <v>1.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
@@ -1323,100 +1323,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="X8" t="n">
-        <v>0.75</v>
+        <v>1.69</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.04</v>
+        <v>3.27</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="9">
@@ -1438,106 +1438,106 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="M9" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O9" t="n">
-        <v>2.03</v>
+        <v>2.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>4.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="V9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.5</v>
       </c>
-      <c r="W9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.84</v>
-      </c>
       <c r="Z9" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.54</v>
+        <v>2.85</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.25</v>
+        <v>1.68</v>
       </c>
       <c r="AC9" t="n">
         <v>5.75</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="AE9" t="n">
         <v>1.24</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1549,110 +1549,110 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N10" t="n">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>2.37</v>
+        <v>1.75</v>
       </c>
       <c r="P10" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="Q10" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI10" t="n">
         <v>3.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X10" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>2.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,104 +1664,104 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
-        <v>0.88</v>
+        <v>1.53</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="12">
@@ -1783,91 +1783,91 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="M12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC12" t="n">
         <v>6</v>
       </c>
-      <c r="N12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>6.25</v>
-      </c>
       <c r="AD12" t="n">
-        <v>1.64</v>
+        <v>3.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AG12" t="n">
         <v>1.72</v>
@@ -1876,7 +1876,7 @@
         <v>2.1</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="13">
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1928,10 +1928,10 @@
         <v>4.35</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -1997,7 +1997,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,110 +2009,110 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Confiança</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4</v>
+        <v>10.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="N14" t="n">
         <v>2.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.41</v>
+        <v>2.53</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="T14" t="n">
         <v>1.16</v>
       </c>
       <c r="U14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="V14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AG14" t="n">
         <v>1.71</v>
       </c>
-      <c r="W14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2.18</v>
-      </c>
       <c r="AH14" t="n">
-        <v>2.93</v>
+        <v>2.15</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2124,80 +2124,80 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Confiança</t>
+          <t>Sportivo Luqueño</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="P15" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>0.78</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.89</v>
+        <v>1.31</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.96</v>
+        <v>2.55</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2243,97 +2243,97 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sportivo Luqueño</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG16" t="n">
         <v>2.18</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>1.11</v>
@@ -2382,10 +2382,10 @@
         <v>6.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="M17" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N17" t="n">
         <v>2.9</v>
@@ -2451,7 +2451,7 @@
         <v>2.7</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="18">
@@ -2482,10 +2482,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
         <v>3.1</v>
@@ -2503,10 +2503,10 @@
         <v>2.48</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
         <v>1.47</v>
